--- a/outputs-HGR-r202/f__Clostridiaceae.xlsx
+++ b/outputs-HGR-r202/f__Clostridiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>g__Clostridium_J</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>g__Clostridium_J</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -603,6 +618,11 @@
         <v>0.9117446482586954</v>
       </c>
       <c r="K4" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>g__Clostridium_J</t>
         </is>

--- a/outputs-HGR-r202/f__Clostridiaceae.xlsx
+++ b/outputs-HGR-r202/f__Clostridiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,35 +499,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2438.fa</t>
+          <t>even_MAG-GUT1081.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04082199601905805</v>
+        <v>0.009746682361230306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03290691943632253</v>
+        <v>0.0005555579711781709</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004564006519337071</v>
+        <v>0.0008461979823961419</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001776747274797089</v>
+        <v>0.001132708484222951</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8813389607790384</v>
+        <v>0.8725705659444994</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01027036671962015</v>
+        <v>0.005087778874388108</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02829780891932587</v>
+        <v>0.1100459641268406</v>
       </c>
       <c r="I2" t="n">
-        <v>2.319433250084286e-05</v>
+        <v>1.454425524428797e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8813389607790384</v>
+        <v>0.8725705659444994</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -543,35 +543,35 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46783.fa</t>
+          <t>even_MAG-GUT1184.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01902578191043418</v>
+        <v>0.004406351851514959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01625733028681579</v>
+        <v>0.000603886327688468</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008383767546363769</v>
+        <v>0.001604051274417801</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001627001598043607</v>
+        <v>0.001054262004655356</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9119516483870782</v>
+        <v>0.8761587568530397</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00710227136513462</v>
+        <v>0.004705392417531176</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03564575675084643</v>
+        <v>0.111463050369172</v>
       </c>
       <c r="I3" t="n">
-        <v>6.442155283432528e-06</v>
+        <v>4.248901980506734e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9119516483870782</v>
+        <v>0.8761587568530397</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -587,42 +587,3342 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT1214.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.003762348403977297</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.000722275286310174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.002506362982745924</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0009818817013424893</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8789161161218004</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.005106865310169095</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.107991204997369</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.294519628542241e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8789161161218004</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1240.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.002720081668268422</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003711466810914856</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.001733259708122418</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001249604383789306</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8892895019521154</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.006927983044930027</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09436377069817969</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.331733679817091e-06</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8892895019521154</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1248.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.002925652087102682</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0001786533330768966</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002779332473350406</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001021076405442299</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8731009930413028</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00481322064665446</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1151667519029429</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.432011012750362e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8731009930413028</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1455.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.005375978934059479</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0003075505923020912</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001687602683078264</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00110745950509431</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9179996592638148</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.005368959356809934</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06813658712576393</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.620253907740096e-05</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9179996592638148</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1488.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.002380166623260091</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.000401168973700463</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.004295204830536993</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001137540421732361</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.927340950761715</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.006240692286770698</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.05819378911677413</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.048698551029222e-05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.927340950761715</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1500.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.009075575902010703</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0006542937098737765</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.002197246105441888</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001295105313291606</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.869319220633159</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.006377289648422333</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.111071805023431</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.46366436972212e-06</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.869319220633159</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1509.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.002162317919292799</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001222011275320719</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01862368585847314</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001414162323282658</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9349274922936908</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.008000946440663858</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03364536227587476</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.021613401260486e-06</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9349274922936908</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1516.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.006387833620858161</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001812333096604238</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001240692198062511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001213160809388474</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9072083370651955</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.006450100468686971</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.07568351487607135</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.027865132727418e-06</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9072083370651955</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1578.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01335037792717561</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001111372996574927</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0008814105764593097</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001227783830591399</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8953777319446292</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.004913768774668127</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.08312885288259471</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.701067306783987e-06</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8953777319446292</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1882.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.002589934177373669</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0007550219965336072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.004097443738643417</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0008957309466672397</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8801641131639169</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.005084565754864052</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1063949660712086</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.822415079260064e-05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8801641131639169</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1894.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.002693294723619212</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0007820502625728276</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.006549779920741084</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001279645281451986</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9327294836238474</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.008021256351237722</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04793635101261593</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.138823913695447e-06</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9327294836238474</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT1915.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002188336558936306</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.000905571908192958</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.002153411698751719</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001064971850486662</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8937828817899651</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.005422985425795063</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.09447738152725325</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.459240618989596e-06</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8937828817899651</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT21168.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9843472110287937</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.001983418690691e-07</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.981555528688377e-05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.005677934125005997</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0001629868063182203</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.004766358205927128</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.004979926109907061</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.536797041902075e-05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9843472110287937</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT21728.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8754814903667787</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0001497222420224512</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.176452790150766e-05</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.007491284901527206</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.03983391728731968</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01438488564383613</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.06249059227496379</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.634275565081267e-05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8754814903667787</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2201.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1779501927720963</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01849318827225482</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001155130388716196</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.004131120892179373</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7057228466013786</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01233323881814063</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.08017736551954942</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.691673568466549e-05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7057228466013786</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2250.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4607221822891094</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.08607959210233258</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0002433545975445785</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.004321868172796032</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3746604523259696</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.012735313559312</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0612056547602188</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.15821927168701e-05</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4607221822891094</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>g__Clostridium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2438.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.04082199601905805</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03290691943632253</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.004564006519337071</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001776747274797089</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8813389607790384</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01027036671962015</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.02829780891932587</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.319433250084286e-05</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8813389607790384</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT27453.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01774296763815344</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0009225935313320902</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0007577905378374769</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001260555855606152</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8947166217446189</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.004691018307970568</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.07989196389417809</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.648849030329772e-05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8947166217446189</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3474.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.002654828436739249</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001168098370845257</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.002954910234771737</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.00123103928907123</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9314403341062787</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.006982639101863801</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.05356477168729382</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.37877313617845e-06</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9314403341062787</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3480.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.006271255337431952</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0005701340632531391</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.001420091413809054</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001119565806263143</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8313244110616436</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.004005994692041999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1552863229487351</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.224676822043012e-06</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8313244110616436</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36616.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3892056206442356</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0007808298745030452</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.001021462223373354</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.003602479712610825</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5033207972651462</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01116635331306238</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.09075433771286386</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0001481192542046302</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5033207972651462</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36756.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2958782860199152</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.003773535846141786</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.003198854199243136</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.005289012223382377</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5516172650144157</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01746226306188495</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1226859534538775</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.48301811395526e-05</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5516172650144157</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT41852.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1976487510558903</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02598593641395876</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.006678691829112225</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.007103518234470303</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.640814948239503</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0246158546857352</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.09711510908824006</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.719045309016326e-05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.640814948239503</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT42578.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8536398469287214</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.192514315558063e-06</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.704292709545729e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.005571096907516837</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0002405275127785437</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.00637587328169955</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1340525113478608</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0001019085800117525</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8536398469287214</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43402.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.002677179595007993</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0005548181568165982</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.002618923463122196</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001213013596118048</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9074516151511746</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.005663540902022588</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.07981702875568662</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.880380051643444e-06</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9074516151511746</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43491.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.001064892158191309</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0003352434829484334</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.002632847096330767</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0009308562503116662</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8720505160504652</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.004086550183357182</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1188954020749397</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.692703455790482e-06</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8720505160504652</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43515.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.003251718617112789</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001466293693973616</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.001119213451932193</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001144825114952168</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8917646089567749</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.006326539276604651</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0949221178123671</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.683076282463863e-06</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8917646089567749</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44179.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.002315324977360326</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0025598103951443</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.001332822340696757</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0009411931065371616</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8076601981296273</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.005890135765842061</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1792948185748296</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.696709962564358e-06</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8076601981296273</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45687.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.002831674532262262</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0006964581491608978</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.00756956873286933</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0009506485557220242</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8922693324532301</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.006173470532883039</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.08947560282855491</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.32442153174167e-05</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8922693324532301</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46783.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01902578191043418</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01625733028681579</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.008383767546363769</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.001627001598043607</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9119516483870782</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.00710227136513462</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03564575675084643</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.442155283432528e-06</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9119516483870782</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47637.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.001617797390054199</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.000578791088863564</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.007934860375164962</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001068488529702059</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8697474851846797</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.006355967829449092</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1126919627817173</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.646820369259709e-06</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8697474851846797</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47723.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.004116944506101182</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0002951221004318695</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.00387762136617614</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.001117892187169455</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9198775200208958</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.005014011221824443</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.06569256328367495</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.325313726131032e-06</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9198775200208958</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47782.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.001417818179422118</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.000615044244185354</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.003655884920106943</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001140032599747192</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9170264224445583</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.005742307800616889</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.07039751538676484</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.974424598366624e-06</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.9170264224445583</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48571.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.004199918517089872</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.001325927809598263</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001587111143459324</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001350234277358048</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9534825539822712</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.006055795796482359</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03199077634407251</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.682129668376756e-06</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9534825539822712</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48940.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.02663496380068553</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0005014433057111843</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0004058687730350667</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001163160342830534</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8704773258834654</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.00465029649539797</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.09614433184029834</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.260955857591048e-05</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8704773258834654</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49005.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.004020245017034868</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0001823005885377698</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.005191091633262448</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.001232141338404891</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9407768475457828</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.005738302214195867</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0428483172938797</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.07543689016703e-05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9407768475457828</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49071.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.007304737619874158</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.001557327201708761</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.004144993687612782</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001228377220330762</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9326752066324496</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.006861675943722698</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.04619589264350334</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.17890507980029e-05</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9326752066324496</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49179.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.004154888182810084</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0009526336825200933</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.001798591428183883</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0008682821596115161</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8549298569385987</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.004704261368479072</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.1325618174356938</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.966880410303593e-05</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8549298569385987</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66152.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9932047708734391</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.470095006414088e-07</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.847854110535649e-05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.002739261033270223</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0003336671869019752</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.002911773024420818</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0007805989760497535</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.08033553123274e-05</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.9932047708734391</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66408.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6973322994477242</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0008899949646872071</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.001760943790247205</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.002215860572264058</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1320774639203723</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01288383407343309</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1526679981584941</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0001716050727777982</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6973322994477242</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>g__Clostridium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70165.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.08598430744851447</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.04017542307603254</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.00769188545597652</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002929126302334644</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8108495499701067</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.009468287149628624</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04287456075814779</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.685983925853573e-05</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8108495499701067</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70664.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.07565124123653036</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.001332670718820693</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.002334862483732305</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.001614905826239114</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5645942988948442</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.009866863363183102</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3445882270137296</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.693046292067533e-05</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5645942988948442</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT71347.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.52517716556253</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.04783466931493851</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0004691386869377697</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.005340841895403004</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2989529101110257</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0158285503836034</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.1063112710456492</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8.545299991260411e-05</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.52517716556253</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>g__Clostridium(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7285.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.01846298309053417</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0005862583192873857</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.001771885118796114</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001079660538650336</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7915645760829035</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.003758035557000639</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1827746752260962</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.926066731575977e-06</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.7915645760829035</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT74675.fa</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B48" t="n">
         <v>0.01279959242699556</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C48" t="n">
         <v>0.01742417191229718</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D48" t="n">
         <v>0.003814277858136243</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E48" t="n">
         <v>0.001254948786924486</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F48" t="n">
         <v>0.9117446482586954</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G48" t="n">
         <v>0.008304124073708121</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H48" t="n">
         <v>0.04464502281264602</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I48" t="n">
         <v>1.32138705969934e-05</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J48" t="n">
         <v>0.9117446482586954</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>g__Clostridium_J</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7751.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9956817433798409</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.893062570754683e-08</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.55693828215748e-06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0019097956943049</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.008954610814289e-05</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001926060481416838</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.000456663956781244</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.041072639966809e-06</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9956817433798409</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>g__Clostridium</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89102.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.003368047006965993</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0003001006101998451</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.001756803434092303</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.001003708520225144</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8463028510049554</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.003515709573423474</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.1437511158830959</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.66396704202073e-06</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8463028510049554</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89255.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01177458348214598</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.000577550456224849</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.002213731529175365</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.001070908577435288</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8411049691061927</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.00472910030380447</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1385194814761608</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.675068860548849e-06</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8411049691061927</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89282.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01272626895094169</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0004320421476620246</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.002323804767009754</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.001076437305683291</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8105148655822433</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.004031544674763437</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.1688918471869156</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.189384780926216e-06</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8105148655822433</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89309.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.003532783179959864</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.00271043810540075</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.002038745862765382</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.001034133384438657</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8788605162977803</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.006534034215745905</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.1052874496815371</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.899272372169838e-06</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8788605162977803</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89335.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.008731087062919128</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.002375341533454426</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.004609532901048221</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.001034042260415509</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8665700587375006</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.006636595394056062</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.1100361447778655</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7.197332740477734e-06</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.8665700587375006</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89577.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.03640868704019219</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.001437471314314954</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0009561571926820366</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.001124609775384147</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.808221361596932</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.003341285657767178</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.1485069486461253</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.478776602109153e-06</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.808221361596932</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89735.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.005490053834667694</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.00231190534627584</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.004340593293043036</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0009043740624453371</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8362116280557371</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.00621138685134681</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1445274782495763</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.580306907811629e-06</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8362116280557371</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89747.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.08838893960805463</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0007767912733024282</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0005373722872263507</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.001450680628835887</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7380023023689866</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.004316936402790888</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.1665229123996427</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.065031160486757e-06</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.7380023023689866</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89833.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.02166250802853191</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0007139014484731246</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.004514778146937446</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.001295270680672451</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8748620779519409</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.004150533377388399</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.09279881925075109</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.111115304659143e-06</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.8748620779519409</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89836.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.008930307808589034</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0002529453580193747</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.001240555453535367</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.001079609288687795</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8876188353279313</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.003502311213978245</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.09737030313869988</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.132410558954476e-06</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8876188353279313</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90694.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01087716497823059</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0003299366366233378</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.002020513242809276</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.001169472065784566</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7564247825411446</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.004362609387745558</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.2248129130468262</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.608100835888763e-06</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.7564247825411446</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91110.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.02166250802853191</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0007139014484731246</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.004514778146937446</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.001295270680672451</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8748620779519409</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.004150533377388399</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.09279881925075109</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.111115304659143e-06</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.8748620779519409</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91199.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.001416992434505796</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0008268951335351932</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.003256067206129499</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.00113488724696872</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9028004363254012</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.006041553148117794</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.08452041136635162</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.757138990115783e-06</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.9028004363254012</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91265.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.008987078932958933</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.001114632529610437</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0009564285892215601</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.001156945619242436</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8986101033783378</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.004567538801026696</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.08460079342534808</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6.478724254046261e-06</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.8986101033783378</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91359.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01156344819740616</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0006501663549940881</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0008872885761561202</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.001118526319403069</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.8689977168339752</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.005046193314611154</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.1117284065766395</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8.253826814662169e-06</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.8689977168339752</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91370.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.005555659789480083</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.001377504330596418</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.006282570428759291</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.001483660958996976</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8584597517517665</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.008947724666672707</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.1178863659411027</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.762132625340759e-06</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8584597517517665</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91379.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.003653173651474161</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0001689067085281013</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.003117313170162919</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.001213782168075466</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9432413216847951</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.005080205949403057</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.04352069282106594</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.603846495281321e-06</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.9432413216847951</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91430.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.001309789587489911</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.001507399899358977</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.003009396462718663</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0009675325040286889</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.8571990345936512</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.006409421176936041</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.1295930802510417</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.345524774666315e-06</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.8571990345936512</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91432.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.003691753943808711</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0008339814216394293</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.002334570838286843</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.001191919862625948</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9340147670908959</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.005155236857554757</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.05276854954733073</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9.220437857583996e-06</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9340147670908959</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91493.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.001595462335915976</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0003772235010711225</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.005225821543377772</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.001227958071816052</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9591051429603619</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.005969995309986396</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.02649089161422451</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7.504663246314132e-06</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.9591051429603619</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91537.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0005811049946681155</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0005116491228406419</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.004763254876115583</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.001239480278142535</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9114673983892915</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.006529253950366796</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.07490524169679193</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.616691782952806e-06</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.9114673983892915</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91584.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003907158791110214</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0005135096394133387</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.002642860489285939</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.00113299016214261</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9113960335853747</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.005737675330576069</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.07465899508415208</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.077691794493874e-05</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.9113960335853747</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91622.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.003428564877001152</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0007995217193921215</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.003925453201535362</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.001118711094847093</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9227370275329306</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.004864986278671644</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.06311311118275909</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.262411286296617e-05</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.9227370275329306</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91705.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.002499331332304512</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.001172504410721729</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.006927388423834132</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.001537670383733134</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9542545553267416</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.008009380776201393</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.02559204452698906</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.124819474434969e-06</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9542545553267416</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91816.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.00335863648081619</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.001931141554118094</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.009605929861142755</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.001363544903554566</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9555099284588273</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.00851886792064783</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.01970088884969454</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.106197119880611e-05</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.9555099284588273</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91830.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.001108554581117833</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0005813802549522901</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.003375655054685065</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.001022401635200404</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9086737105527012</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.005558667604660474</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.07967633044474748</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.299871935266127e-06</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9086737105527012</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91887.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.001502315537879866</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0002487838918065812</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.004532012350022627</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.001061741263355529</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.8820876832261252</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.005063996999138709</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.1054972319325138</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6.234799157781618e-06</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.8820876832261252</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91939.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.002013347499712094</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0001955365246872428</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.005313159048447039</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.00111378243374862</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.915668694991319</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.00526558644197356</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.07042080181044288</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9.091249669548551e-06</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.915668694991319</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91958.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.005905220000369595</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0003902367961908732</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.002402262665447722</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0009998883356826626</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8897692254185741</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.004939953310619337</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.09557819025961256</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.502321350300117e-05</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.8897692254185741</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91967.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.025524638008961</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.001855104198420648</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0009823355748247178</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.001088939747234138</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8644307971761866</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.005330395088111759</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.1007405297934995</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4.72604127615036e-05</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.8644307971761866</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>g__Clostridium_J</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>g__Clostridium_J</t>
         </is>
